--- a/ExcelORM/ExcelORMTests/testFiles/forAppend.xlsx
+++ b/ExcelORM/ExcelORMTests/testFiles/forAppend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\git\ExcelORM\ExcelORM\ExcelORMTests\testFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD71EB2-F9BF-46B4-BB6F-8539D5851782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AAEF8D-959B-450B-B7B5-D90C8F21AB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="31290" windowHeight="16440" xr2:uid="{73EFAC09-B148-4BAF-9CC6-A826E0BC3805}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Michael</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Last name</t>
+  </si>
+  <si>
+    <t>Some text</t>
+  </si>
+  <si>
+    <t>People really love to do that in Excel, for some reason:(</t>
   </si>
 </sst>
 </file>
@@ -447,67 +453,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBA1815-35A7-4189-9B8D-FBAF4836F831}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>65</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
     </row>
